--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49417C-E839-4074-A560-68A659B59815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B2609-C38C-4547-9D1C-31B9F8701881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,22 +294,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
+    <t>CdCode.RepayType
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,6 +563,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -574,9 +577,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -935,10 +935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
@@ -950,8 +950,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>73</v>
       </c>
@@ -963,10 +963,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -978,10 +978,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -989,10 +989,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1000,10 +1000,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1011,10 +1011,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1332,7 +1332,7 @@
       <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="27" t="s">
         <v>75</v>
       </c>
     </row>
